--- a/User-story's.xlsx
+++ b/User-story's.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\laravel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F898AD12-C83A-4001-AD67-FB359B80937A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC37CA86-1549-4D6B-B31F-F1490DFC91D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{96E4F204-A96B-B442-B776-0E7F469FE00D}"/>
   </bookViews>
@@ -1534,7 +1534,7 @@
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1577,7 +1577,7 @@
     </row>
     <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>15</v>
@@ -1600,7 +1600,7 @@
     </row>
     <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>16</v>
@@ -1623,7 +1623,7 @@
     </row>
     <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>17</v>
@@ -1646,7 +1646,7 @@
     </row>
     <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>18</v>
@@ -1669,7 +1669,7 @@
     </row>
     <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>19</v>
@@ -1692,7 +1692,7 @@
     </row>
     <row r="7" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>20</v>
@@ -2606,7 +2606,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="C20" sqref="C20:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -3329,16 +3329,16 @@
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C4C429B-C437-4A37-B7CA-137886FFB6B3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="5c2aeaab-3434-48d9-b2ba-99c708216bcd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="5c2aeaab-3434-48d9-b2ba-99c708216bcd"/>
     <ds:schemaRef ds:uri="584c6f05-645a-45c2-af5b-a2298cf6e1b5"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/User-story's.xlsx
+++ b/User-story's.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\laravel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC37CA86-1549-4D6B-B31F-F1490DFC91D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{254E5401-80FA-4065-A5A5-055F9018EAD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{96E4F204-A96B-B442-B776-0E7F469FE00D}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{96E4F204-A96B-B442-B776-0E7F469FE00D}"/>
   </bookViews>
   <sheets>
     <sheet name="Basis" sheetId="1" r:id="rId1"/>
@@ -700,7 +700,207 @@
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="52">
+  <dxfs count="72">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1533,8 +1733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F8C07C-95E6-5F45-AA16-00A7B9F9E844}">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="94" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1669,7 +1869,7 @@
     </row>
     <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>19</v>
@@ -1692,7 +1892,7 @@
     </row>
     <row r="7" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>20</v>
@@ -1715,7 +1915,7 @@
     </row>
     <row r="8" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>21</v>
@@ -1738,7 +1938,7 @@
     </row>
     <row r="9" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>22</v>
@@ -1761,7 +1961,7 @@
     </row>
     <row r="10" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>23</v>
@@ -1807,7 +2007,7 @@
     </row>
     <row r="12" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>25</v>
@@ -1830,7 +2030,7 @@
     </row>
     <row r="13" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>26</v>
@@ -1853,7 +2053,7 @@
     </row>
     <row r="14" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>27</v>
@@ -1876,7 +2076,7 @@
     </row>
     <row r="15" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>28</v>
@@ -1899,7 +2099,7 @@
     </row>
     <row r="16" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>29</v>
@@ -1922,7 +2122,7 @@
     </row>
     <row r="17" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>30</v>
@@ -1945,7 +2145,7 @@
     </row>
     <row r="18" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>128</v>
@@ -1968,7 +2168,7 @@
     </row>
     <row r="19" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>31</v>
@@ -1991,7 +2191,7 @@
     </row>
     <row r="20" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>32</v>
@@ -2411,171 +2611,185 @@
     <sortCondition ref="C1"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="A5:A9 A21:A22 A29:A37 A25 A13:A16">
-    <cfRule type="cellIs" dxfId="51" priority="49" operator="equal">
+  <conditionalFormatting sqref="A21:A22 A29:A37 A25 A5:A9 A13:A16">
+    <cfRule type="cellIs" dxfId="71" priority="69" operator="equal">
       <formula>"Kom er niet uit"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="70" operator="equal">
       <formula>"Afgerond"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="71" operator="equal">
       <formula>"Mee bezig"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="72" operator="equal">
       <formula>"Todo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="cellIs" dxfId="47" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="61" operator="equal">
       <formula>"Kom er niet uit"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="62" operator="equal">
       <formula>"Afgerond"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="63" operator="equal">
       <formula>"Mee bezig"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="64" operator="equal">
       <formula>"Todo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="43" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="53" operator="equal">
       <formula>"Kom er niet uit"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="54" operator="equal">
       <formula>"Afgerond"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="55" operator="equal">
       <formula>"Mee bezig"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="56" operator="equal">
       <formula>"Todo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="cellIs" dxfId="39" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="57" operator="equal">
       <formula>"Kom er niet uit"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="58" operator="equal">
       <formula>"Afgerond"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="59" operator="equal">
       <formula>"Mee bezig"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="60" operator="equal">
+      <formula>"Todo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18:A20">
+    <cfRule type="cellIs" dxfId="43" priority="37" operator="equal">
+      <formula>"Kom er niet uit"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="38" operator="equal">
+      <formula>"Afgerond"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="41" priority="39" operator="equal">
+      <formula>"Mee bezig"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="40" operator="equal">
+      <formula>"Todo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A26">
+    <cfRule type="cellIs" dxfId="39" priority="33" operator="equal">
+      <formula>"Kom er niet uit"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="34" operator="equal">
+      <formula>"Afgerond"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="35" operator="equal">
+      <formula>"Mee bezig"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="36" operator="equal">
+      <formula>"Todo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27">
+    <cfRule type="cellIs" dxfId="35" priority="29" operator="equal">
+      <formula>"Kom er niet uit"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="30" operator="equal">
+      <formula>"Afgerond"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="31" operator="equal">
+      <formula>"Mee bezig"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="32" operator="equal">
+      <formula>"Todo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A28">
+    <cfRule type="cellIs" dxfId="31" priority="25" operator="equal">
+      <formula>"Kom er niet uit"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="26" operator="equal">
+      <formula>"Afgerond"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="27" operator="equal">
+      <formula>"Mee bezig"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="28" operator="equal">
+      <formula>"Todo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23:A24">
+    <cfRule type="cellIs" dxfId="27" priority="21" operator="equal">
+      <formula>"Kom er niet uit"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="22" operator="equal">
+      <formula>"Afgerond"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="23" operator="equal">
+      <formula>"Mee bezig"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="24" operator="equal">
+      <formula>"Todo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10">
+    <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
+      <formula>"Kom er niet uit"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
+      <formula>"Afgerond"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
+      <formula>"Mee bezig"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
+      <formula>"Todo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12">
+    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
+      <formula>"Kom er niet uit"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+      <formula>"Afgerond"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
+      <formula>"Mee bezig"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
       <formula>"Todo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="cellIs" dxfId="35" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>"Kom er niet uit"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>"Afgerond"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>"Mee bezig"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
       <formula>"Todo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A10">
-    <cfRule type="cellIs" dxfId="31" priority="29" operator="equal">
+  <conditionalFormatting sqref="A17">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"Kom er niet uit"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"Afgerond"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"Mee bezig"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="32" operator="equal">
-      <formula>"Todo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A12">
-    <cfRule type="cellIs" dxfId="27" priority="21" operator="equal">
-      <formula>"Kom er niet uit"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="22" operator="equal">
-      <formula>"Afgerond"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="23" operator="equal">
-      <formula>"Mee bezig"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="24" operator="equal">
-      <formula>"Todo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A17:A20">
-    <cfRule type="cellIs" dxfId="23" priority="17" operator="equal">
-      <formula>"Kom er niet uit"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="18" operator="equal">
-      <formula>"Afgerond"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="19" operator="equal">
-      <formula>"Mee bezig"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
-      <formula>"Todo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A26">
-    <cfRule type="cellIs" dxfId="19" priority="13" operator="equal">
-      <formula>"Kom er niet uit"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="14" operator="equal">
-      <formula>"Afgerond"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="15" operator="equal">
-      <formula>"Mee bezig"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="16" operator="equal">
-      <formula>"Todo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A27">
-    <cfRule type="cellIs" dxfId="15" priority="9" operator="equal">
-      <formula>"Kom er niet uit"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="10" operator="equal">
-      <formula>"Afgerond"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
-      <formula>"Mee bezig"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
-      <formula>"Todo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A28">
-    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
-      <formula>"Kom er niet uit"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
-      <formula>"Afgerond"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
-      <formula>"Mee bezig"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
-      <formula>"Todo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A23:A24">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
-      <formula>"Kom er niet uit"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
-      <formula>"Afgerond"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
-      <formula>"Mee bezig"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"Todo"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2960,16 +3174,16 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="A2:A14">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="1" operator="equal">
       <formula>"Kom er niet uit"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
       <formula>"Afgerond"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="3" operator="equal">
       <formula>"Mee bezig"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="4" operator="equal">
       <formula>"Todo"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3082,6 +3296,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F8D01017B67FFC40B6EAF835C0079E48" ma:contentTypeVersion="10" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="c7194cc31030e2712d76c2006e0d75af">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="584c6f05-645a-45c2-af5b-a2298cf6e1b5" xmlns:ns3="5c2aeaab-3434-48d9-b2ba-99c708216bcd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="420f24c0cdcfc5bd7329cba19e0bdf1c" ns2:_="" ns3:_="">
     <xsd:import namespace="584c6f05-645a-45c2-af5b-a2298cf6e1b5"/>
@@ -3284,22 +3513,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C4C429B-C437-4A37-B7CA-137886FFB6B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="5c2aeaab-3434-48d9-b2ba-99c708216bcd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="584c6f05-645a-45c2-af5b-a2298cf6e1b5"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2490BF6-BAD1-45FA-8E2E-1DC0E56639F9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C62A3BA8-675C-43E7-9E30-618B42A3DB6A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3316,29 +3555,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2490BF6-BAD1-45FA-8E2E-1DC0E56639F9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C4C429B-C437-4A37-B7CA-137886FFB6B3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="5c2aeaab-3434-48d9-b2ba-99c708216bcd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="584c6f05-645a-45c2-af5b-a2298cf6e1b5"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>